--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/02.TraBH/TBH_KimLong_300625.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/02.TraBH/TBH_KimLong_300625.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang6\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E5D53-F079-45AB-815F-2FACF23BE10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22B2E70-8C5A-4D8E-8B64-C2476D29AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,6 +443,69 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,69 +520,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,7 +887,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -907,56 +907,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="48" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
@@ -972,12 +972,12 @@
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="23"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -985,12 +985,12 @@
       <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="23"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -998,12 +998,12 @@
       <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="23"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -1011,12 +1011,12 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="23"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -1024,31 +1024,31 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="32" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="7"/>
@@ -1102,15 +1102,15 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="55"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,26 +1134,26 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
@@ -1211,19 +1211,19 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
@@ -1237,17 +1237,12 @@
       <c r="I23" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B25:C25"/>
@@ -1259,9 +1254,14 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="21" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>